--- a/FICHA DE EPI Atualizada.xlsx
+++ b/FICHA DE EPI Atualizada.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\sistema_epi_v2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -152,9 +157,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00"/>
-  </numFmts>
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -543,9 +545,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,48 +555,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -644,14 +612,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,6 +663,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -956,17 +961,17 @@
   </sheetPr>
   <dimension ref="A1:Z655"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="15" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
@@ -974,16 +979,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1004,15 +1009,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="48" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1037,13 +1042,13 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1073,19 +1078,19 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="3"/>
@@ -1111,13 +1116,13 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="1"/>
       <c r="J5" s="7"/>
       <c r="K5" s="1"/>
@@ -1141,13 +1146,13 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1171,13 +1176,13 @@
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1201,13 +1206,13 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
       <c r="K8" s="1"/>
@@ -1228,14 +1233,14 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="2.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1256,16 +1261,16 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1286,16 +1291,16 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1316,14 +1321,14 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1344,14 +1349,14 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1372,16 +1377,16 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1402,14 +1407,14 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1430,16 +1435,16 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1460,14 +1465,14 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1488,16 +1493,16 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1518,14 +1523,14 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1546,16 +1551,16 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1576,14 +1581,14 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1604,11 +1609,11 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="84" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="1"/>
@@ -1634,11 +1639,11 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="10"/>
@@ -1662,16 +1667,16 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1692,14 +1697,14 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1738,10 +1743,10 @@
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1763,13 +1768,13 @@
     </row>
     <row r="27" spans="1:26" ht="84" customHeight="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="26"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1796,8 +1801,8 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1824,8 +1829,8 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1852,8 +1857,8 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1880,8 +1885,8 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1908,8 +1913,8 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1936,8 +1941,8 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1964,8 +1969,8 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1992,8 +1997,8 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2020,8 +2025,8 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2048,8 +2053,8 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2076,8 +2081,8 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2104,8 +2109,8 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2132,8 +2137,8 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2160,8 +2165,8 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2188,8 +2193,8 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2216,8 +2221,8 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2244,8 +2249,8 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2272,8 +2277,8 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2300,8 +2305,8 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2328,8 +2333,8 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2356,8 +2361,8 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2384,8 +2389,8 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -2412,8 +2417,8 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -2440,8 +2445,8 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -2468,8 +2473,8 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2496,8 +2501,8 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2524,8 +2529,8 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2552,8 +2557,8 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2580,8 +2585,8 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2608,8 +2613,8 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2636,8 +2641,8 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2664,8 +2669,8 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2692,8 +2697,8 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -2720,8 +2725,8 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -2748,8 +2753,8 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2776,8 +2781,8 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -2804,8 +2809,8 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -2832,8 +2837,8 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -2860,8 +2865,8 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -2888,8 +2893,8 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -2916,8 +2921,8 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -2944,8 +2949,8 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -2972,8 +2977,8 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -3000,8 +3005,8 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3028,8 +3033,8 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3056,8 +3061,8 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -3084,8 +3089,8 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -3112,8 +3117,8 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3140,8 +3145,8 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3168,8 +3173,8 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3196,8 +3201,8 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -3224,8 +3229,8 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3252,8 +3257,8 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -3280,8 +3285,8 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -3308,8 +3313,8 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -3336,8 +3341,8 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -3364,8 +3369,8 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3392,8 +3397,8 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -3420,8 +3425,8 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -3448,8 +3453,8 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -3476,8 +3481,8 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -3504,8 +3509,8 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -3532,8 +3537,8 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -3560,8 +3565,8 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -3588,8 +3593,8 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -3616,8 +3621,8 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -3644,8 +3649,8 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -3672,8 +3677,8 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -3700,8 +3705,8 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -3728,8 +3733,8 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -3756,8 +3761,8 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -3784,8 +3789,8 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -3812,8 +3817,8 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -3840,8 +3845,8 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -3868,8 +3873,8 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -3896,8 +3901,8 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -3924,8 +3929,8 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -3952,8 +3957,8 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -3980,8 +3985,8 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -4008,8 +4013,8 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -4036,8 +4041,8 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -4064,8 +4069,8 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -4092,8 +4097,8 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -4120,8 +4125,8 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="55"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -4148,8 +4153,8 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="55"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -4176,8 +4181,8 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -4204,8 +4209,8 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -4232,8 +4237,8 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="55"/>
-      <c r="H115" s="55"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -4260,8 +4265,8 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="55"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -4288,8 +4293,8 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="55"/>
-      <c r="H117" s="55"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -4316,8 +4321,8 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -4344,8 +4349,8 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -4372,8 +4377,8 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -4400,8 +4405,8 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -4428,8 +4433,8 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -4456,8 +4461,8 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -4484,8 +4489,8 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -4512,8 +4517,8 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -4540,8 +4545,8 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -4568,8 +4573,8 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -4596,8 +4601,8 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="55"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -4624,8 +4629,8 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -4652,8 +4657,8 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="55"/>
-      <c r="H130" s="55"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -4680,8 +4685,8 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="55"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -4708,8 +4713,8 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -4736,8 +4741,8 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="55"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -4764,8 +4769,8 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -4792,8 +4797,8 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="55"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -4820,8 +4825,8 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="55"/>
-      <c r="H136" s="55"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -4848,8 +4853,8 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -4876,8 +4881,8 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="55"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -4904,8 +4909,8 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="55"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -4932,8 +4937,8 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="55"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -4960,8 +4965,8 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="55"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -4988,8 +4993,8 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="55"/>
-      <c r="H142" s="55"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -5016,8 +5021,8 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -5044,8 +5049,8 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="55"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -5072,8 +5077,8 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -5100,8 +5105,8 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="55"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -5128,8 +5133,8 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="55"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -5156,8 +5161,8 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="55"/>
-      <c r="H148" s="55"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -5184,8 +5189,8 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -5212,8 +5217,8 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -5240,8 +5245,8 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="55"/>
-      <c r="H151" s="55"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -5268,8 +5273,8 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="55"/>
-      <c r="H152" s="55"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -5296,8 +5301,8 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="55"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -5324,8 +5329,8 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="55"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -5352,8 +5357,8 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="55"/>
-      <c r="H155" s="55"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -5380,8 +5385,8 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="55"/>
-      <c r="H156" s="55"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -5408,8 +5413,8 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="55"/>
-      <c r="H157" s="55"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -5436,8 +5441,8 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="55"/>
-      <c r="H158" s="55"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -5464,8 +5469,8 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="55"/>
-      <c r="H159" s="55"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -5492,8 +5497,8 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="55"/>
-      <c r="H160" s="55"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -5520,8 +5525,8 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="55"/>
-      <c r="H161" s="55"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -5548,8 +5553,8 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="55"/>
-      <c r="H162" s="55"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -5576,8 +5581,8 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="55"/>
-      <c r="H163" s="55"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -5604,8 +5609,8 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="55"/>
-      <c r="H164" s="55"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -5632,8 +5637,8 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="55"/>
-      <c r="H165" s="55"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -5660,8 +5665,8 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="55"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -5688,8 +5693,8 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="55"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -5716,8 +5721,8 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="55"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -5744,8 +5749,8 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="55"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -5772,8 +5777,8 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -5800,8 +5805,8 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="55"/>
-      <c r="H171" s="55"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -5828,8 +5833,8 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -5856,8 +5861,8 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="55"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -5884,8 +5889,8 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="55"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -5912,8 +5917,8 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="55"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -5940,8 +5945,8 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -5968,8 +5973,8 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="55"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -5996,8 +6001,8 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="55"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -6024,8 +6029,8 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -6052,8 +6057,8 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -6080,8 +6085,8 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -6108,8 +6113,8 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -6136,8 +6141,8 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -6164,8 +6169,8 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -6192,8 +6197,8 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -6220,8 +6225,8 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="55"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -6248,8 +6253,8 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -6276,8 +6281,8 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="55"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -6304,8 +6309,8 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="55"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -6332,8 +6337,8 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -6360,8 +6365,8 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="55"/>
-      <c r="H191" s="55"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -6388,8 +6393,8 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="55"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -6416,8 +6421,8 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="55"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -6444,8 +6449,8 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -6472,8 +6477,8 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="55"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -6500,8 +6505,8 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="55"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -6528,8 +6533,8 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="55"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="22"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -6556,8 +6561,8 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -6584,8 +6589,8 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
@@ -6612,8 +6617,8 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="55"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -6640,8 +6645,8 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="55"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
@@ -6668,8 +6673,8 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="55"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
@@ -6696,8 +6701,8 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="55"/>
-      <c r="H203" s="55"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -6724,8 +6729,8 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="55"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -6752,8 +6757,8 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -6780,8 +6785,8 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="55"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -6808,8 +6813,8 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="55"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -6836,8 +6841,8 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="55"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -6864,8 +6869,8 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="55"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
@@ -6892,8 +6897,8 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="22"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -6920,8 +6925,8 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="55"/>
-      <c r="H211" s="55"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="22"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -6948,8 +6953,8 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="55"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="22"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
@@ -6976,8 +6981,8 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="55"/>
-      <c r="H213" s="55"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
@@ -7004,8 +7009,8 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="55"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
@@ -7032,8 +7037,8 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="55"/>
-      <c r="H215" s="55"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
@@ -7060,8 +7065,8 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="55"/>
-      <c r="H216" s="55"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
@@ -7088,8 +7093,8 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="55"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
@@ -7116,8 +7121,8 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="55"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -7144,8 +7149,8 @@
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="55"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
@@ -7172,8 +7177,8 @@
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="55"/>
-      <c r="H220" s="55"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
@@ -7200,8 +7205,8 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="55"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
@@ -7228,8 +7233,8 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="55"/>
-      <c r="H222" s="55"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="22"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -7256,8 +7261,8 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="55"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="22"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
@@ -7284,8 +7289,8 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="55"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="22"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -7312,8 +7317,8 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="55"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
@@ -7340,8 +7345,8 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="55"/>
-      <c r="H226" s="55"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="22"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -7368,8 +7373,8 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="55"/>
-      <c r="H227" s="55"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="22"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -7396,8 +7401,8 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="55"/>
-      <c r="H228" s="55"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -7424,8 +7429,8 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="55"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
@@ -7452,8 +7457,8 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="55"/>
-      <c r="H230" s="55"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -7480,8 +7485,8 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="55"/>
-      <c r="H231" s="55"/>
+      <c r="G231" s="22"/>
+      <c r="H231" s="22"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -7508,8 +7513,8 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="55"/>
-      <c r="H232" s="55"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="22"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -7536,8 +7541,8 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="55"/>
-      <c r="H233" s="55"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="22"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -7564,8 +7569,8 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="55"/>
-      <c r="H234" s="55"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -7592,8 +7597,8 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="55"/>
-      <c r="H235" s="55"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="22"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -7620,8 +7625,8 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="55"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="22"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -7648,8 +7653,8 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="55"/>
-      <c r="H237" s="55"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="22"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -7676,8 +7681,8 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="55"/>
-      <c r="H238" s="55"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="22"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
@@ -7704,8 +7709,8 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="55"/>
-      <c r="H239" s="55"/>
+      <c r="G239" s="22"/>
+      <c r="H239" s="22"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
@@ -7732,8 +7737,8 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="55"/>
-      <c r="H240" s="55"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="22"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
@@ -7760,8 +7765,8 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-      <c r="G241" s="55"/>
-      <c r="H241" s="55"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="22"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
@@ -7788,8 +7793,8 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-      <c r="G242" s="55"/>
-      <c r="H242" s="55"/>
+      <c r="G242" s="22"/>
+      <c r="H242" s="22"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
@@ -7816,8 +7821,8 @@
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-      <c r="G243" s="55"/>
-      <c r="H243" s="55"/>
+      <c r="G243" s="22"/>
+      <c r="H243" s="22"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
@@ -7844,8 +7849,8 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="55"/>
-      <c r="H244" s="55"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="22"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
@@ -7872,8 +7877,8 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="55"/>
-      <c r="H245" s="55"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
@@ -7900,8 +7905,8 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="55"/>
-      <c r="H246" s="55"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="22"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
@@ -7928,8 +7933,8 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="55"/>
-      <c r="H247" s="55"/>
+      <c r="G247" s="22"/>
+      <c r="H247" s="22"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
@@ -7956,8 +7961,8 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="55"/>
-      <c r="H248" s="55"/>
+      <c r="G248" s="22"/>
+      <c r="H248" s="22"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
@@ -7984,8 +7989,8 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="55"/>
-      <c r="H249" s="55"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="22"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
@@ -8012,8 +8017,8 @@
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-      <c r="G250" s="55"/>
-      <c r="H250" s="55"/>
+      <c r="G250" s="22"/>
+      <c r="H250" s="22"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
@@ -8040,8 +8045,8 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="55"/>
-      <c r="H251" s="55"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="22"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
@@ -8068,8 +8073,8 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="55"/>
-      <c r="H252" s="55"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="22"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
@@ -8096,8 +8101,8 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="55"/>
-      <c r="H253" s="55"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="22"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
@@ -8124,8 +8129,8 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="55"/>
-      <c r="H254" s="55"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="22"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
@@ -8152,8 +8157,8 @@
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="55"/>
-      <c r="H255" s="55"/>
+      <c r="G255" s="22"/>
+      <c r="H255" s="22"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
@@ -8180,8 +8185,8 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="55"/>
-      <c r="H256" s="55"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="22"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
@@ -8208,8 +8213,8 @@
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="55"/>
-      <c r="H257" s="55"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="22"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
@@ -8236,8 +8241,8 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="55"/>
-      <c r="H258" s="55"/>
+      <c r="G258" s="22"/>
+      <c r="H258" s="22"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
@@ -8264,8 +8269,8 @@
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="55"/>
-      <c r="H259" s="55"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="22"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
@@ -8292,8 +8297,8 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="55"/>
-      <c r="H260" s="55"/>
+      <c r="G260" s="22"/>
+      <c r="H260" s="22"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
@@ -8320,8 +8325,8 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="55"/>
-      <c r="H261" s="55"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="22"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
@@ -8348,8 +8353,8 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="55"/>
-      <c r="H262" s="55"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="22"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
@@ -8376,8 +8381,8 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="55"/>
-      <c r="H263" s="55"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="22"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
@@ -8404,8 +8409,8 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="55"/>
-      <c r="H264" s="55"/>
+      <c r="G264" s="22"/>
+      <c r="H264" s="22"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
@@ -8432,8 +8437,8 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="55"/>
-      <c r="H265" s="55"/>
+      <c r="G265" s="22"/>
+      <c r="H265" s="22"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
@@ -8460,8 +8465,8 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-      <c r="G266" s="55"/>
-      <c r="H266" s="55"/>
+      <c r="G266" s="22"/>
+      <c r="H266" s="22"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
@@ -8488,8 +8493,8 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-      <c r="G267" s="55"/>
-      <c r="H267" s="55"/>
+      <c r="G267" s="22"/>
+      <c r="H267" s="22"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
@@ -8516,8 +8521,8 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
+      <c r="G268" s="22"/>
+      <c r="H268" s="22"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
@@ -8544,8 +8549,8 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="55"/>
-      <c r="H269" s="55"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="22"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
@@ -8572,8 +8577,8 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="55"/>
-      <c r="H270" s="55"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
@@ -8600,8 +8605,8 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="55"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="22"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
@@ -8628,8 +8633,8 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="55"/>
-      <c r="H272" s="55"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="22"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
@@ -8656,8 +8661,8 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="55"/>
-      <c r="H273" s="55"/>
+      <c r="G273" s="22"/>
+      <c r="H273" s="22"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
@@ -8684,8 +8689,8 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
+      <c r="G274" s="22"/>
+      <c r="H274" s="22"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -8712,8 +8717,8 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="55"/>
-      <c r="H275" s="55"/>
+      <c r="G275" s="22"/>
+      <c r="H275" s="22"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
@@ -8740,8 +8745,8 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="55"/>
-      <c r="H276" s="55"/>
+      <c r="G276" s="22"/>
+      <c r="H276" s="22"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
@@ -8768,8 +8773,8 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="55"/>
-      <c r="H277" s="55"/>
+      <c r="G277" s="22"/>
+      <c r="H277" s="22"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
@@ -8796,8 +8801,8 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="55"/>
-      <c r="H278" s="55"/>
+      <c r="G278" s="22"/>
+      <c r="H278" s="22"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
@@ -8824,8 +8829,8 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="55"/>
-      <c r="H279" s="55"/>
+      <c r="G279" s="22"/>
+      <c r="H279" s="22"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
@@ -8852,8 +8857,8 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="55"/>
-      <c r="H280" s="55"/>
+      <c r="G280" s="22"/>
+      <c r="H280" s="22"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
@@ -8880,8 +8885,8 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="55"/>
-      <c r="H281" s="55"/>
+      <c r="G281" s="22"/>
+      <c r="H281" s="22"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
@@ -8908,8 +8913,8 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="55"/>
-      <c r="H282" s="55"/>
+      <c r="G282" s="22"/>
+      <c r="H282" s="22"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
@@ -8936,8 +8941,8 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="55"/>
-      <c r="H283" s="55"/>
+      <c r="G283" s="22"/>
+      <c r="H283" s="22"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
@@ -8964,8 +8969,8 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="55"/>
-      <c r="H284" s="55"/>
+      <c r="G284" s="22"/>
+      <c r="H284" s="22"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
@@ -8992,8 +8997,8 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="55"/>
-      <c r="H285" s="55"/>
+      <c r="G285" s="22"/>
+      <c r="H285" s="22"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
@@ -9020,8 +9025,8 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="55"/>
-      <c r="H286" s="55"/>
+      <c r="G286" s="22"/>
+      <c r="H286" s="22"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
@@ -9048,8 +9053,8 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="55"/>
-      <c r="H287" s="55"/>
+      <c r="G287" s="22"/>
+      <c r="H287" s="22"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
@@ -9076,8 +9081,8 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="55"/>
-      <c r="H288" s="55"/>
+      <c r="G288" s="22"/>
+      <c r="H288" s="22"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
@@ -9104,8 +9109,8 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="55"/>
-      <c r="H289" s="55"/>
+      <c r="G289" s="22"/>
+      <c r="H289" s="22"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
@@ -9132,8 +9137,8 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="55"/>
-      <c r="H290" s="55"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="22"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
@@ -9160,8 +9165,8 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="55"/>
-      <c r="H291" s="55"/>
+      <c r="G291" s="22"/>
+      <c r="H291" s="22"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
@@ -9188,8 +9193,8 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="55"/>
-      <c r="H292" s="55"/>
+      <c r="G292" s="22"/>
+      <c r="H292" s="22"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
@@ -9216,8 +9221,8 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="55"/>
-      <c r="H293" s="55"/>
+      <c r="G293" s="22"/>
+      <c r="H293" s="22"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
@@ -9244,8 +9249,8 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="55"/>
-      <c r="H294" s="55"/>
+      <c r="G294" s="22"/>
+      <c r="H294" s="22"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
@@ -9272,8 +9277,8 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="55"/>
-      <c r="H295" s="55"/>
+      <c r="G295" s="22"/>
+      <c r="H295" s="22"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
@@ -9300,8 +9305,8 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="55"/>
-      <c r="H296" s="55"/>
+      <c r="G296" s="22"/>
+      <c r="H296" s="22"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
@@ -9328,8 +9333,8 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="55"/>
-      <c r="H297" s="55"/>
+      <c r="G297" s="22"/>
+      <c r="H297" s="22"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
@@ -9356,8 +9361,8 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="55"/>
-      <c r="H298" s="55"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="22"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
@@ -9384,8 +9389,8 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="55"/>
-      <c r="H299" s="55"/>
+      <c r="G299" s="22"/>
+      <c r="H299" s="22"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
@@ -9412,8 +9417,8 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="55"/>
-      <c r="H300" s="55"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="22"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
@@ -9440,8 +9445,8 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-      <c r="G301" s="55"/>
-      <c r="H301" s="55"/>
+      <c r="G301" s="22"/>
+      <c r="H301" s="22"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
@@ -9468,8 +9473,8 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="55"/>
-      <c r="H302" s="55"/>
+      <c r="G302" s="22"/>
+      <c r="H302" s="22"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
@@ -9496,8 +9501,8 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-      <c r="G303" s="55"/>
-      <c r="H303" s="55"/>
+      <c r="G303" s="22"/>
+      <c r="H303" s="22"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
@@ -9524,8 +9529,8 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-      <c r="G304" s="55"/>
-      <c r="H304" s="55"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="22"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
@@ -9552,8 +9557,8 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-      <c r="G305" s="55"/>
-      <c r="H305" s="55"/>
+      <c r="G305" s="22"/>
+      <c r="H305" s="22"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
@@ -9580,8 +9585,8 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-      <c r="G306" s="55"/>
-      <c r="H306" s="55"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="22"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
@@ -9608,8 +9613,8 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-      <c r="G307" s="55"/>
-      <c r="H307" s="55"/>
+      <c r="G307" s="22"/>
+      <c r="H307" s="22"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
@@ -9636,8 +9641,8 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-      <c r="G308" s="55"/>
-      <c r="H308" s="55"/>
+      <c r="G308" s="22"/>
+      <c r="H308" s="22"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
@@ -9664,8 +9669,8 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-      <c r="G309" s="55"/>
-      <c r="H309" s="55"/>
+      <c r="G309" s="22"/>
+      <c r="H309" s="22"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
@@ -9692,8 +9697,8 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-      <c r="G310" s="55"/>
-      <c r="H310" s="55"/>
+      <c r="G310" s="22"/>
+      <c r="H310" s="22"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
@@ -9720,8 +9725,8 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-      <c r="G311" s="55"/>
-      <c r="H311" s="55"/>
+      <c r="G311" s="22"/>
+      <c r="H311" s="22"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
@@ -9748,8 +9753,8 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-      <c r="G312" s="55"/>
-      <c r="H312" s="55"/>
+      <c r="G312" s="22"/>
+      <c r="H312" s="22"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
@@ -9776,8 +9781,8 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-      <c r="G313" s="55"/>
-      <c r="H313" s="55"/>
+      <c r="G313" s="22"/>
+      <c r="H313" s="22"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
@@ -9804,8 +9809,8 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-      <c r="G314" s="55"/>
-      <c r="H314" s="55"/>
+      <c r="G314" s="22"/>
+      <c r="H314" s="22"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
@@ -9832,8 +9837,8 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="55"/>
-      <c r="H315" s="55"/>
+      <c r="G315" s="22"/>
+      <c r="H315" s="22"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
@@ -9860,8 +9865,8 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-      <c r="G316" s="55"/>
-      <c r="H316" s="55"/>
+      <c r="G316" s="22"/>
+      <c r="H316" s="22"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
@@ -9888,8 +9893,8 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-      <c r="G317" s="55"/>
-      <c r="H317" s="55"/>
+      <c r="G317" s="22"/>
+      <c r="H317" s="22"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
@@ -9916,8 +9921,8 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-      <c r="G318" s="55"/>
-      <c r="H318" s="55"/>
+      <c r="G318" s="22"/>
+      <c r="H318" s="22"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
@@ -9944,8 +9949,8 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-      <c r="G319" s="55"/>
-      <c r="H319" s="55"/>
+      <c r="G319" s="22"/>
+      <c r="H319" s="22"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
@@ -9972,8 +9977,8 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-      <c r="G320" s="55"/>
-      <c r="H320" s="55"/>
+      <c r="G320" s="22"/>
+      <c r="H320" s="22"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
@@ -10000,8 +10005,8 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-      <c r="G321" s="55"/>
-      <c r="H321" s="55"/>
+      <c r="G321" s="22"/>
+      <c r="H321" s="22"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
@@ -10028,8 +10033,8 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-      <c r="G322" s="55"/>
-      <c r="H322" s="55"/>
+      <c r="G322" s="22"/>
+      <c r="H322" s="22"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
@@ -10056,8 +10061,8 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-      <c r="G323" s="55"/>
-      <c r="H323" s="55"/>
+      <c r="G323" s="22"/>
+      <c r="H323" s="22"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
@@ -10084,8 +10089,8 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-      <c r="G324" s="55"/>
-      <c r="H324" s="55"/>
+      <c r="G324" s="22"/>
+      <c r="H324" s="22"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
@@ -10112,8 +10117,8 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-      <c r="G325" s="55"/>
-      <c r="H325" s="55"/>
+      <c r="G325" s="22"/>
+      <c r="H325" s="22"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
@@ -10140,8 +10145,8 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-      <c r="G326" s="55"/>
-      <c r="H326" s="55"/>
+      <c r="G326" s="22"/>
+      <c r="H326" s="22"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
@@ -10168,8 +10173,8 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-      <c r="G327" s="55"/>
-      <c r="H327" s="55"/>
+      <c r="G327" s="22"/>
+      <c r="H327" s="22"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
@@ -10196,8 +10201,8 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" s="55"/>
-      <c r="H328" s="55"/>
+      <c r="G328" s="22"/>
+      <c r="H328" s="22"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
@@ -10224,8 +10229,8 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-      <c r="G329" s="55"/>
-      <c r="H329" s="55"/>
+      <c r="G329" s="22"/>
+      <c r="H329" s="22"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
@@ -10252,8 +10257,8 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="55"/>
-      <c r="H330" s="55"/>
+      <c r="G330" s="22"/>
+      <c r="H330" s="22"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
@@ -10280,8 +10285,8 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-      <c r="G331" s="55"/>
-      <c r="H331" s="55"/>
+      <c r="G331" s="22"/>
+      <c r="H331" s="22"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
@@ -10308,8 +10313,8 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-      <c r="G332" s="55"/>
-      <c r="H332" s="55"/>
+      <c r="G332" s="22"/>
+      <c r="H332" s="22"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
@@ -10336,8 +10341,8 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-      <c r="G333" s="55"/>
-      <c r="H333" s="55"/>
+      <c r="G333" s="22"/>
+      <c r="H333" s="22"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
@@ -10364,8 +10369,8 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-      <c r="G334" s="55"/>
-      <c r="H334" s="55"/>
+      <c r="G334" s="22"/>
+      <c r="H334" s="22"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
@@ -10392,8 +10397,8 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-      <c r="G335" s="55"/>
-      <c r="H335" s="55"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="22"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
@@ -10420,8 +10425,8 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-      <c r="G336" s="55"/>
-      <c r="H336" s="55"/>
+      <c r="G336" s="22"/>
+      <c r="H336" s="22"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
@@ -10448,8 +10453,8 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-      <c r="G337" s="55"/>
-      <c r="H337" s="55"/>
+      <c r="G337" s="22"/>
+      <c r="H337" s="22"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
@@ -10476,8 +10481,8 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-      <c r="G338" s="55"/>
-      <c r="H338" s="55"/>
+      <c r="G338" s="22"/>
+      <c r="H338" s="22"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
@@ -10504,8 +10509,8 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-      <c r="G339" s="55"/>
-      <c r="H339" s="55"/>
+      <c r="G339" s="22"/>
+      <c r="H339" s="22"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
@@ -10532,8 +10537,8 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="55"/>
-      <c r="H340" s="55"/>
+      <c r="G340" s="22"/>
+      <c r="H340" s="22"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
@@ -10560,8 +10565,8 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-      <c r="G341" s="55"/>
-      <c r="H341" s="55"/>
+      <c r="G341" s="22"/>
+      <c r="H341" s="22"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
@@ -10588,8 +10593,8 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-      <c r="G342" s="55"/>
-      <c r="H342" s="55"/>
+      <c r="G342" s="22"/>
+      <c r="H342" s="22"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
@@ -10616,8 +10621,8 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-      <c r="G343" s="55"/>
-      <c r="H343" s="55"/>
+      <c r="G343" s="22"/>
+      <c r="H343" s="22"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
@@ -10644,8 +10649,8 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-      <c r="G344" s="55"/>
-      <c r="H344" s="55"/>
+      <c r="G344" s="22"/>
+      <c r="H344" s="22"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
@@ -10672,8 +10677,8 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-      <c r="G345" s="55"/>
-      <c r="H345" s="55"/>
+      <c r="G345" s="22"/>
+      <c r="H345" s="22"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
@@ -10700,8 +10705,8 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-      <c r="G346" s="55"/>
-      <c r="H346" s="55"/>
+      <c r="G346" s="22"/>
+      <c r="H346" s="22"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
@@ -10728,8 +10733,8 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-      <c r="G347" s="55"/>
-      <c r="H347" s="55"/>
+      <c r="G347" s="22"/>
+      <c r="H347" s="22"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
@@ -10756,8 +10761,8 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-      <c r="G348" s="55"/>
-      <c r="H348" s="55"/>
+      <c r="G348" s="22"/>
+      <c r="H348" s="22"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
@@ -10784,8 +10789,8 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-      <c r="G349" s="55"/>
-      <c r="H349" s="55"/>
+      <c r="G349" s="22"/>
+      <c r="H349" s="22"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
@@ -10812,8 +10817,8 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-      <c r="G350" s="55"/>
-      <c r="H350" s="55"/>
+      <c r="G350" s="22"/>
+      <c r="H350" s="22"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
@@ -10840,8 +10845,8 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-      <c r="G351" s="55"/>
-      <c r="H351" s="55"/>
+      <c r="G351" s="22"/>
+      <c r="H351" s="22"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
@@ -10868,8 +10873,8 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-      <c r="G352" s="55"/>
-      <c r="H352" s="55"/>
+      <c r="G352" s="22"/>
+      <c r="H352" s="22"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
@@ -10896,8 +10901,8 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-      <c r="G353" s="55"/>
-      <c r="H353" s="55"/>
+      <c r="G353" s="22"/>
+      <c r="H353" s="22"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
@@ -10924,8 +10929,8 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-      <c r="G354" s="55"/>
-      <c r="H354" s="55"/>
+      <c r="G354" s="22"/>
+      <c r="H354" s="22"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
@@ -10952,8 +10957,8 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-      <c r="G355" s="55"/>
-      <c r="H355" s="55"/>
+      <c r="G355" s="22"/>
+      <c r="H355" s="22"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
@@ -10980,8 +10985,8 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-      <c r="G356" s="55"/>
-      <c r="H356" s="55"/>
+      <c r="G356" s="22"/>
+      <c r="H356" s="22"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
@@ -11008,8 +11013,8 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
-      <c r="G357" s="55"/>
-      <c r="H357" s="55"/>
+      <c r="G357" s="22"/>
+      <c r="H357" s="22"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
@@ -11036,8 +11041,8 @@
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
-      <c r="G358" s="55"/>
-      <c r="H358" s="55"/>
+      <c r="G358" s="22"/>
+      <c r="H358" s="22"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
@@ -11064,8 +11069,8 @@
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
-      <c r="G359" s="55"/>
-      <c r="H359" s="55"/>
+      <c r="G359" s="22"/>
+      <c r="H359" s="22"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
@@ -11092,8 +11097,8 @@
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
-      <c r="G360" s="55"/>
-      <c r="H360" s="55"/>
+      <c r="G360" s="22"/>
+      <c r="H360" s="22"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
@@ -11120,8 +11125,8 @@
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
-      <c r="G361" s="55"/>
-      <c r="H361" s="55"/>
+      <c r="G361" s="22"/>
+      <c r="H361" s="22"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
@@ -11148,8 +11153,8 @@
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
-      <c r="G362" s="55"/>
-      <c r="H362" s="55"/>
+      <c r="G362" s="22"/>
+      <c r="H362" s="22"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
@@ -11176,8 +11181,8 @@
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
-      <c r="G363" s="55"/>
-      <c r="H363" s="55"/>
+      <c r="G363" s="22"/>
+      <c r="H363" s="22"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
@@ -11204,8 +11209,8 @@
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
-      <c r="G364" s="55"/>
-      <c r="H364" s="55"/>
+      <c r="G364" s="22"/>
+      <c r="H364" s="22"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
@@ -11232,8 +11237,8 @@
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
-      <c r="G365" s="55"/>
-      <c r="H365" s="55"/>
+      <c r="G365" s="22"/>
+      <c r="H365" s="22"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
@@ -11260,8 +11265,8 @@
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
-      <c r="G366" s="55"/>
-      <c r="H366" s="55"/>
+      <c r="G366" s="22"/>
+      <c r="H366" s="22"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
@@ -11288,8 +11293,8 @@
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
-      <c r="G367" s="55"/>
-      <c r="H367" s="55"/>
+      <c r="G367" s="22"/>
+      <c r="H367" s="22"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
@@ -11316,8 +11321,8 @@
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
-      <c r="G368" s="55"/>
-      <c r="H368" s="55"/>
+      <c r="G368" s="22"/>
+      <c r="H368" s="22"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
@@ -11344,8 +11349,8 @@
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
-      <c r="G369" s="55"/>
-      <c r="H369" s="55"/>
+      <c r="G369" s="22"/>
+      <c r="H369" s="22"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
@@ -11372,8 +11377,8 @@
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
-      <c r="G370" s="55"/>
-      <c r="H370" s="55"/>
+      <c r="G370" s="22"/>
+      <c r="H370" s="22"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
@@ -11400,8 +11405,8 @@
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
-      <c r="G371" s="55"/>
-      <c r="H371" s="55"/>
+      <c r="G371" s="22"/>
+      <c r="H371" s="22"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
@@ -11428,8 +11433,8 @@
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
-      <c r="G372" s="55"/>
-      <c r="H372" s="55"/>
+      <c r="G372" s="22"/>
+      <c r="H372" s="22"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
@@ -11456,8 +11461,8 @@
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
-      <c r="G373" s="55"/>
-      <c r="H373" s="55"/>
+      <c r="G373" s="22"/>
+      <c r="H373" s="22"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
@@ -11484,8 +11489,8 @@
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
-      <c r="G374" s="55"/>
-      <c r="H374" s="55"/>
+      <c r="G374" s="22"/>
+      <c r="H374" s="22"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
@@ -11512,8 +11517,8 @@
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
-      <c r="G375" s="55"/>
-      <c r="H375" s="55"/>
+      <c r="G375" s="22"/>
+      <c r="H375" s="22"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
@@ -11540,8 +11545,8 @@
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
-      <c r="G376" s="55"/>
-      <c r="H376" s="55"/>
+      <c r="G376" s="22"/>
+      <c r="H376" s="22"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
@@ -11568,8 +11573,8 @@
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
-      <c r="G377" s="55"/>
-      <c r="H377" s="55"/>
+      <c r="G377" s="22"/>
+      <c r="H377" s="22"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
@@ -11596,8 +11601,8 @@
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
-      <c r="G378" s="55"/>
-      <c r="H378" s="55"/>
+      <c r="G378" s="22"/>
+      <c r="H378" s="22"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
@@ -11624,8 +11629,8 @@
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
-      <c r="G379" s="55"/>
-      <c r="H379" s="55"/>
+      <c r="G379" s="22"/>
+      <c r="H379" s="22"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
@@ -11652,8 +11657,8 @@
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
-      <c r="G380" s="55"/>
-      <c r="H380" s="55"/>
+      <c r="G380" s="22"/>
+      <c r="H380" s="22"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
@@ -11680,8 +11685,8 @@
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
-      <c r="G381" s="55"/>
-      <c r="H381" s="55"/>
+      <c r="G381" s="22"/>
+      <c r="H381" s="22"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
@@ -11708,8 +11713,8 @@
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
-      <c r="G382" s="55"/>
-      <c r="H382" s="55"/>
+      <c r="G382" s="22"/>
+      <c r="H382" s="22"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
@@ -11736,8 +11741,8 @@
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
-      <c r="G383" s="55"/>
-      <c r="H383" s="55"/>
+      <c r="G383" s="22"/>
+      <c r="H383" s="22"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
@@ -11764,8 +11769,8 @@
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
-      <c r="G384" s="55"/>
-      <c r="H384" s="55"/>
+      <c r="G384" s="22"/>
+      <c r="H384" s="22"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
@@ -11792,8 +11797,8 @@
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
-      <c r="G385" s="55"/>
-      <c r="H385" s="55"/>
+      <c r="G385" s="22"/>
+      <c r="H385" s="22"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
@@ -11820,8 +11825,8 @@
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
-      <c r="G386" s="55"/>
-      <c r="H386" s="55"/>
+      <c r="G386" s="22"/>
+      <c r="H386" s="22"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
@@ -11848,8 +11853,8 @@
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
-      <c r="G387" s="55"/>
-      <c r="H387" s="55"/>
+      <c r="G387" s="22"/>
+      <c r="H387" s="22"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
@@ -11876,8 +11881,8 @@
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
-      <c r="G388" s="55"/>
-      <c r="H388" s="55"/>
+      <c r="G388" s="22"/>
+      <c r="H388" s="22"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
@@ -11904,8 +11909,8 @@
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
-      <c r="G389" s="55"/>
-      <c r="H389" s="55"/>
+      <c r="G389" s="22"/>
+      <c r="H389" s="22"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
@@ -11932,8 +11937,8 @@
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
-      <c r="G390" s="55"/>
-      <c r="H390" s="55"/>
+      <c r="G390" s="22"/>
+      <c r="H390" s="22"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
@@ -11960,8 +11965,8 @@
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
-      <c r="G391" s="55"/>
-      <c r="H391" s="55"/>
+      <c r="G391" s="22"/>
+      <c r="H391" s="22"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
@@ -11988,8 +11993,8 @@
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
-      <c r="G392" s="55"/>
-      <c r="H392" s="55"/>
+      <c r="G392" s="22"/>
+      <c r="H392" s="22"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
@@ -12016,8 +12021,8 @@
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
-      <c r="G393" s="55"/>
-      <c r="H393" s="55"/>
+      <c r="G393" s="22"/>
+      <c r="H393" s="22"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
@@ -12044,8 +12049,8 @@
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
-      <c r="G394" s="55"/>
-      <c r="H394" s="55"/>
+      <c r="G394" s="22"/>
+      <c r="H394" s="22"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
@@ -12072,8 +12077,8 @@
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
-      <c r="G395" s="55"/>
-      <c r="H395" s="55"/>
+      <c r="G395" s="22"/>
+      <c r="H395" s="22"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
@@ -12100,8 +12105,8 @@
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
-      <c r="G396" s="55"/>
-      <c r="H396" s="55"/>
+      <c r="G396" s="22"/>
+      <c r="H396" s="22"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
@@ -12128,8 +12133,8 @@
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
-      <c r="G397" s="55"/>
-      <c r="H397" s="55"/>
+      <c r="G397" s="22"/>
+      <c r="H397" s="22"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
@@ -12156,8 +12161,8 @@
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
-      <c r="G398" s="55"/>
-      <c r="H398" s="55"/>
+      <c r="G398" s="22"/>
+      <c r="H398" s="22"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
@@ -12184,8 +12189,8 @@
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
-      <c r="G399" s="55"/>
-      <c r="H399" s="55"/>
+      <c r="G399" s="22"/>
+      <c r="H399" s="22"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
@@ -12212,8 +12217,8 @@
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
-      <c r="G400" s="55"/>
-      <c r="H400" s="55"/>
+      <c r="G400" s="22"/>
+      <c r="H400" s="22"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
@@ -12240,8 +12245,8 @@
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
-      <c r="G401" s="55"/>
-      <c r="H401" s="55"/>
+      <c r="G401" s="22"/>
+      <c r="H401" s="22"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
@@ -12268,8 +12273,8 @@
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
-      <c r="G402" s="55"/>
-      <c r="H402" s="55"/>
+      <c r="G402" s="22"/>
+      <c r="H402" s="22"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
@@ -12296,8 +12301,8 @@
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
-      <c r="G403" s="55"/>
-      <c r="H403" s="55"/>
+      <c r="G403" s="22"/>
+      <c r="H403" s="22"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
@@ -12324,8 +12329,8 @@
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
-      <c r="G404" s="55"/>
-      <c r="H404" s="55"/>
+      <c r="G404" s="22"/>
+      <c r="H404" s="22"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
@@ -12352,8 +12357,8 @@
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
-      <c r="G405" s="55"/>
-      <c r="H405" s="55"/>
+      <c r="G405" s="22"/>
+      <c r="H405" s="22"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
@@ -12380,8 +12385,8 @@
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
-      <c r="G406" s="55"/>
-      <c r="H406" s="55"/>
+      <c r="G406" s="22"/>
+      <c r="H406" s="22"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
@@ -12408,8 +12413,8 @@
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
-      <c r="G407" s="55"/>
-      <c r="H407" s="55"/>
+      <c r="G407" s="22"/>
+      <c r="H407" s="22"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
@@ -12436,8 +12441,8 @@
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
-      <c r="G408" s="55"/>
-      <c r="H408" s="55"/>
+      <c r="G408" s="22"/>
+      <c r="H408" s="22"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
@@ -12464,8 +12469,8 @@
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
-      <c r="G409" s="55"/>
-      <c r="H409" s="55"/>
+      <c r="G409" s="22"/>
+      <c r="H409" s="22"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
@@ -12492,8 +12497,8 @@
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
-      <c r="G410" s="55"/>
-      <c r="H410" s="55"/>
+      <c r="G410" s="22"/>
+      <c r="H410" s="22"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
@@ -12520,8 +12525,8 @@
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
-      <c r="G411" s="55"/>
-      <c r="H411" s="55"/>
+      <c r="G411" s="22"/>
+      <c r="H411" s="22"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
@@ -12548,8 +12553,8 @@
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
-      <c r="G412" s="55"/>
-      <c r="H412" s="55"/>
+      <c r="G412" s="22"/>
+      <c r="H412" s="22"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
@@ -12576,8 +12581,8 @@
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
-      <c r="G413" s="55"/>
-      <c r="H413" s="55"/>
+      <c r="G413" s="22"/>
+      <c r="H413" s="22"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
@@ -12604,8 +12609,8 @@
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
-      <c r="G414" s="55"/>
-      <c r="H414" s="55"/>
+      <c r="G414" s="22"/>
+      <c r="H414" s="22"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
@@ -12632,8 +12637,8 @@
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
-      <c r="G415" s="55"/>
-      <c r="H415" s="55"/>
+      <c r="G415" s="22"/>
+      <c r="H415" s="22"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
@@ -12660,8 +12665,8 @@
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
-      <c r="G416" s="55"/>
-      <c r="H416" s="55"/>
+      <c r="G416" s="22"/>
+      <c r="H416" s="22"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
@@ -12688,8 +12693,8 @@
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
-      <c r="G417" s="55"/>
-      <c r="H417" s="55"/>
+      <c r="G417" s="22"/>
+      <c r="H417" s="22"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
@@ -12716,8 +12721,8 @@
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
-      <c r="G418" s="55"/>
-      <c r="H418" s="55"/>
+      <c r="G418" s="22"/>
+      <c r="H418" s="22"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
@@ -12744,8 +12749,8 @@
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
-      <c r="G419" s="55"/>
-      <c r="H419" s="55"/>
+      <c r="G419" s="22"/>
+      <c r="H419" s="22"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
@@ -12772,8 +12777,8 @@
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
-      <c r="G420" s="55"/>
-      <c r="H420" s="55"/>
+      <c r="G420" s="22"/>
+      <c r="H420" s="22"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
@@ -12800,8 +12805,8 @@
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
-      <c r="G421" s="55"/>
-      <c r="H421" s="55"/>
+      <c r="G421" s="22"/>
+      <c r="H421" s="22"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
@@ -12828,8 +12833,8 @@
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
-      <c r="G422" s="55"/>
-      <c r="H422" s="55"/>
+      <c r="G422" s="22"/>
+      <c r="H422" s="22"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
@@ -12856,8 +12861,8 @@
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
-      <c r="G423" s="55"/>
-      <c r="H423" s="55"/>
+      <c r="G423" s="22"/>
+      <c r="H423" s="22"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
@@ -12884,8 +12889,8 @@
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
-      <c r="G424" s="55"/>
-      <c r="H424" s="55"/>
+      <c r="G424" s="22"/>
+      <c r="H424" s="22"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
@@ -12912,8 +12917,8 @@
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
-      <c r="G425" s="55"/>
-      <c r="H425" s="55"/>
+      <c r="G425" s="22"/>
+      <c r="H425" s="22"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
@@ -12940,8 +12945,8 @@
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
-      <c r="G426" s="55"/>
-      <c r="H426" s="55"/>
+      <c r="G426" s="22"/>
+      <c r="H426" s="22"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
@@ -12968,8 +12973,8 @@
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
-      <c r="G427" s="55"/>
-      <c r="H427" s="55"/>
+      <c r="G427" s="22"/>
+      <c r="H427" s="22"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
@@ -12996,8 +13001,8 @@
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
-      <c r="G428" s="55"/>
-      <c r="H428" s="55"/>
+      <c r="G428" s="22"/>
+      <c r="H428" s="22"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
@@ -13024,8 +13029,8 @@
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
-      <c r="G429" s="55"/>
-      <c r="H429" s="55"/>
+      <c r="G429" s="22"/>
+      <c r="H429" s="22"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
@@ -13052,8 +13057,8 @@
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
-      <c r="G430" s="55"/>
-      <c r="H430" s="55"/>
+      <c r="G430" s="22"/>
+      <c r="H430" s="22"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
@@ -13080,8 +13085,8 @@
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
-      <c r="G431" s="55"/>
-      <c r="H431" s="55"/>
+      <c r="G431" s="22"/>
+      <c r="H431" s="22"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
@@ -13108,8 +13113,8 @@
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
-      <c r="G432" s="55"/>
-      <c r="H432" s="55"/>
+      <c r="G432" s="22"/>
+      <c r="H432" s="22"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
@@ -13136,8 +13141,8 @@
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
-      <c r="G433" s="55"/>
-      <c r="H433" s="55"/>
+      <c r="G433" s="22"/>
+      <c r="H433" s="22"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
@@ -13164,8 +13169,8 @@
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
-      <c r="G434" s="55"/>
-      <c r="H434" s="55"/>
+      <c r="G434" s="22"/>
+      <c r="H434" s="22"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
@@ -13192,8 +13197,8 @@
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
-      <c r="G435" s="55"/>
-      <c r="H435" s="55"/>
+      <c r="G435" s="22"/>
+      <c r="H435" s="22"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
@@ -13220,8 +13225,8 @@
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
-      <c r="G436" s="55"/>
-      <c r="H436" s="55"/>
+      <c r="G436" s="22"/>
+      <c r="H436" s="22"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
       <c r="K436" s="3"/>
@@ -13248,8 +13253,8 @@
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
-      <c r="G437" s="55"/>
-      <c r="H437" s="55"/>
+      <c r="G437" s="22"/>
+      <c r="H437" s="22"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
@@ -13276,8 +13281,8 @@
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
-      <c r="G438" s="55"/>
-      <c r="H438" s="55"/>
+      <c r="G438" s="22"/>
+      <c r="H438" s="22"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
       <c r="K438" s="3"/>
@@ -13304,8 +13309,8 @@
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
-      <c r="G439" s="55"/>
-      <c r="H439" s="55"/>
+      <c r="G439" s="22"/>
+      <c r="H439" s="22"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
       <c r="K439" s="3"/>
@@ -13332,8 +13337,8 @@
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
-      <c r="G440" s="55"/>
-      <c r="H440" s="55"/>
+      <c r="G440" s="22"/>
+      <c r="H440" s="22"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
@@ -13360,8 +13365,8 @@
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
-      <c r="G441" s="55"/>
-      <c r="H441" s="55"/>
+      <c r="G441" s="22"/>
+      <c r="H441" s="22"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
       <c r="K441" s="3"/>
@@ -13388,8 +13393,8 @@
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
-      <c r="G442" s="55"/>
-      <c r="H442" s="55"/>
+      <c r="G442" s="22"/>
+      <c r="H442" s="22"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
       <c r="K442" s="3"/>
@@ -13416,8 +13421,8 @@
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
-      <c r="G443" s="55"/>
-      <c r="H443" s="55"/>
+      <c r="G443" s="22"/>
+      <c r="H443" s="22"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
       <c r="K443" s="3"/>
@@ -13444,8 +13449,8 @@
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
-      <c r="G444" s="55"/>
-      <c r="H444" s="55"/>
+      <c r="G444" s="22"/>
+      <c r="H444" s="22"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
       <c r="K444" s="3"/>
@@ -13472,8 +13477,8 @@
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
-      <c r="G445" s="55"/>
-      <c r="H445" s="55"/>
+      <c r="G445" s="22"/>
+      <c r="H445" s="22"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
@@ -13500,8 +13505,8 @@
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
-      <c r="G446" s="55"/>
-      <c r="H446" s="55"/>
+      <c r="G446" s="22"/>
+      <c r="H446" s="22"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
       <c r="K446" s="3"/>
@@ -13528,8 +13533,8 @@
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
-      <c r="G447" s="55"/>
-      <c r="H447" s="55"/>
+      <c r="G447" s="22"/>
+      <c r="H447" s="22"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
       <c r="K447" s="3"/>
@@ -13556,8 +13561,8 @@
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
-      <c r="G448" s="55"/>
-      <c r="H448" s="55"/>
+      <c r="G448" s="22"/>
+      <c r="H448" s="22"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
       <c r="K448" s="3"/>
@@ -13584,8 +13589,8 @@
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
-      <c r="G449" s="55"/>
-      <c r="H449" s="55"/>
+      <c r="G449" s="22"/>
+      <c r="H449" s="22"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
       <c r="K449" s="3"/>
@@ -13612,8 +13617,8 @@
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
-      <c r="G450" s="55"/>
-      <c r="H450" s="55"/>
+      <c r="G450" s="22"/>
+      <c r="H450" s="22"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
       <c r="K450" s="3"/>
@@ -13640,8 +13645,8 @@
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
-      <c r="G451" s="55"/>
-      <c r="H451" s="55"/>
+      <c r="G451" s="22"/>
+      <c r="H451" s="22"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
@@ -13668,8 +13673,8 @@
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
-      <c r="G452" s="55"/>
-      <c r="H452" s="55"/>
+      <c r="G452" s="22"/>
+      <c r="H452" s="22"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
       <c r="K452" s="3"/>
@@ -13696,8 +13701,8 @@
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
-      <c r="G453" s="55"/>
-      <c r="H453" s="55"/>
+      <c r="G453" s="22"/>
+      <c r="H453" s="22"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
       <c r="K453" s="3"/>
@@ -13724,8 +13729,8 @@
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
-      <c r="G454" s="55"/>
-      <c r="H454" s="55"/>
+      <c r="G454" s="22"/>
+      <c r="H454" s="22"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
       <c r="K454" s="3"/>
@@ -13752,8 +13757,8 @@
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
-      <c r="G455" s="55"/>
-      <c r="H455" s="55"/>
+      <c r="G455" s="22"/>
+      <c r="H455" s="22"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
       <c r="K455" s="3"/>
@@ -13780,8 +13785,8 @@
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
-      <c r="G456" s="55"/>
-      <c r="H456" s="55"/>
+      <c r="G456" s="22"/>
+      <c r="H456" s="22"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
@@ -13808,8 +13813,8 @@
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
-      <c r="G457" s="55"/>
-      <c r="H457" s="55"/>
+      <c r="G457" s="22"/>
+      <c r="H457" s="22"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
@@ -13836,8 +13841,8 @@
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
-      <c r="G458" s="55"/>
-      <c r="H458" s="55"/>
+      <c r="G458" s="22"/>
+      <c r="H458" s="22"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
@@ -13864,8 +13869,8 @@
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
-      <c r="G459" s="55"/>
-      <c r="H459" s="55"/>
+      <c r="G459" s="22"/>
+      <c r="H459" s="22"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
@@ -13892,8 +13897,8 @@
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
-      <c r="G460" s="55"/>
-      <c r="H460" s="55"/>
+      <c r="G460" s="22"/>
+      <c r="H460" s="22"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
       <c r="K460" s="3"/>
@@ -13920,8 +13925,8 @@
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
-      <c r="G461" s="55"/>
-      <c r="H461" s="55"/>
+      <c r="G461" s="22"/>
+      <c r="H461" s="22"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
@@ -13948,8 +13953,8 @@
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
-      <c r="G462" s="55"/>
-      <c r="H462" s="55"/>
+      <c r="G462" s="22"/>
+      <c r="H462" s="22"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
       <c r="K462" s="3"/>
@@ -13976,8 +13981,8 @@
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
-      <c r="G463" s="55"/>
-      <c r="H463" s="55"/>
+      <c r="G463" s="22"/>
+      <c r="H463" s="22"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
       <c r="K463" s="3"/>
@@ -14004,8 +14009,8 @@
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
-      <c r="G464" s="55"/>
-      <c r="H464" s="55"/>
+      <c r="G464" s="22"/>
+      <c r="H464" s="22"/>
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
@@ -14032,8 +14037,8 @@
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
-      <c r="G465" s="55"/>
-      <c r="H465" s="55"/>
+      <c r="G465" s="22"/>
+      <c r="H465" s="22"/>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
       <c r="K465" s="3"/>
@@ -14060,8 +14065,8 @@
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
-      <c r="G466" s="55"/>
-      <c r="H466" s="55"/>
+      <c r="G466" s="22"/>
+      <c r="H466" s="22"/>
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
       <c r="K466" s="3"/>
@@ -14088,8 +14093,8 @@
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
-      <c r="G467" s="55"/>
-      <c r="H467" s="55"/>
+      <c r="G467" s="22"/>
+      <c r="H467" s="22"/>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
@@ -14116,8 +14121,8 @@
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
-      <c r="G468" s="55"/>
-      <c r="H468" s="55"/>
+      <c r="G468" s="22"/>
+      <c r="H468" s="22"/>
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
       <c r="K468" s="3"/>
@@ -14144,8 +14149,8 @@
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
-      <c r="G469" s="55"/>
-      <c r="H469" s="55"/>
+      <c r="G469" s="22"/>
+      <c r="H469" s="22"/>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
@@ -14172,8 +14177,8 @@
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
-      <c r="G470" s="55"/>
-      <c r="H470" s="55"/>
+      <c r="G470" s="22"/>
+      <c r="H470" s="22"/>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
       <c r="K470" s="3"/>
@@ -14200,8 +14205,8 @@
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
-      <c r="G471" s="55"/>
-      <c r="H471" s="55"/>
+      <c r="G471" s="22"/>
+      <c r="H471" s="22"/>
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
@@ -14228,8 +14233,8 @@
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
-      <c r="G472" s="55"/>
-      <c r="H472" s="55"/>
+      <c r="G472" s="22"/>
+      <c r="H472" s="22"/>
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
       <c r="K472" s="3"/>
@@ -14256,8 +14261,8 @@
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
-      <c r="G473" s="55"/>
-      <c r="H473" s="55"/>
+      <c r="G473" s="22"/>
+      <c r="H473" s="22"/>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
       <c r="K473" s="3"/>
@@ -14284,8 +14289,8 @@
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
-      <c r="G474" s="55"/>
-      <c r="H474" s="55"/>
+      <c r="G474" s="22"/>
+      <c r="H474" s="22"/>
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
@@ -14312,8 +14317,8 @@
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
-      <c r="G475" s="55"/>
-      <c r="H475" s="55"/>
+      <c r="G475" s="22"/>
+      <c r="H475" s="22"/>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
       <c r="K475" s="3"/>
@@ -14340,8 +14345,8 @@
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
-      <c r="G476" s="55"/>
-      <c r="H476" s="55"/>
+      <c r="G476" s="22"/>
+      <c r="H476" s="22"/>
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
       <c r="K476" s="3"/>
@@ -14368,8 +14373,8 @@
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
-      <c r="G477" s="55"/>
-      <c r="H477" s="55"/>
+      <c r="G477" s="22"/>
+      <c r="H477" s="22"/>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
       <c r="K477" s="3"/>
@@ -14396,8 +14401,8 @@
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
-      <c r="G478" s="55"/>
-      <c r="H478" s="55"/>
+      <c r="G478" s="22"/>
+      <c r="H478" s="22"/>
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
       <c r="K478" s="3"/>
@@ -14424,8 +14429,8 @@
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
-      <c r="G479" s="55"/>
-      <c r="H479" s="55"/>
+      <c r="G479" s="22"/>
+      <c r="H479" s="22"/>
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
       <c r="K479" s="3"/>
@@ -14452,8 +14457,8 @@
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
-      <c r="G480" s="55"/>
-      <c r="H480" s="55"/>
+      <c r="G480" s="22"/>
+      <c r="H480" s="22"/>
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
       <c r="K480" s="3"/>
@@ -14480,8 +14485,8 @@
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
-      <c r="G481" s="55"/>
-      <c r="H481" s="55"/>
+      <c r="G481" s="22"/>
+      <c r="H481" s="22"/>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
       <c r="K481" s="3"/>
@@ -14508,8 +14513,8 @@
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
-      <c r="G482" s="55"/>
-      <c r="H482" s="55"/>
+      <c r="G482" s="22"/>
+      <c r="H482" s="22"/>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
       <c r="K482" s="3"/>
@@ -14536,8 +14541,8 @@
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
-      <c r="G483" s="55"/>
-      <c r="H483" s="55"/>
+      <c r="G483" s="22"/>
+      <c r="H483" s="22"/>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
       <c r="K483" s="3"/>
@@ -14564,8 +14569,8 @@
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
-      <c r="G484" s="55"/>
-      <c r="H484" s="55"/>
+      <c r="G484" s="22"/>
+      <c r="H484" s="22"/>
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
       <c r="K484" s="3"/>
@@ -14592,8 +14597,8 @@
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="55"/>
-      <c r="H485" s="55"/>
+      <c r="G485" s="22"/>
+      <c r="H485" s="22"/>
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
       <c r="K485" s="3"/>
@@ -14620,8 +14625,8 @@
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
-      <c r="G486" s="55"/>
-      <c r="H486" s="55"/>
+      <c r="G486" s="22"/>
+      <c r="H486" s="22"/>
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
       <c r="K486" s="3"/>
@@ -14648,8 +14653,8 @@
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
-      <c r="G487" s="55"/>
-      <c r="H487" s="55"/>
+      <c r="G487" s="22"/>
+      <c r="H487" s="22"/>
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
       <c r="K487" s="3"/>
@@ -14676,8 +14681,8 @@
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
-      <c r="G488" s="55"/>
-      <c r="H488" s="55"/>
+      <c r="G488" s="22"/>
+      <c r="H488" s="22"/>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
       <c r="K488" s="3"/>
@@ -14704,8 +14709,8 @@
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
-      <c r="G489" s="55"/>
-      <c r="H489" s="55"/>
+      <c r="G489" s="22"/>
+      <c r="H489" s="22"/>
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
       <c r="K489" s="3"/>
@@ -14732,8 +14737,8 @@
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
-      <c r="G490" s="55"/>
-      <c r="H490" s="55"/>
+      <c r="G490" s="22"/>
+      <c r="H490" s="22"/>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
       <c r="K490" s="3"/>
@@ -14760,8 +14765,8 @@
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
-      <c r="G491" s="55"/>
-      <c r="H491" s="55"/>
+      <c r="G491" s="22"/>
+      <c r="H491" s="22"/>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
@@ -14788,8 +14793,8 @@
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
-      <c r="G492" s="55"/>
-      <c r="H492" s="55"/>
+      <c r="G492" s="22"/>
+      <c r="H492" s="22"/>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
       <c r="K492" s="3"/>
@@ -14816,8 +14821,8 @@
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
-      <c r="G493" s="55"/>
-      <c r="H493" s="55"/>
+      <c r="G493" s="22"/>
+      <c r="H493" s="22"/>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
       <c r="K493" s="3"/>
@@ -14844,8 +14849,8 @@
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
-      <c r="G494" s="55"/>
-      <c r="H494" s="55"/>
+      <c r="G494" s="22"/>
+      <c r="H494" s="22"/>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
       <c r="K494" s="3"/>
@@ -14872,8 +14877,8 @@
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
-      <c r="G495" s="55"/>
-      <c r="H495" s="55"/>
+      <c r="G495" s="22"/>
+      <c r="H495" s="22"/>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
       <c r="K495" s="3"/>
@@ -14900,8 +14905,8 @@
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
-      <c r="G496" s="55"/>
-      <c r="H496" s="55"/>
+      <c r="G496" s="22"/>
+      <c r="H496" s="22"/>
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
       <c r="K496" s="3"/>
@@ -14928,8 +14933,8 @@
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
-      <c r="G497" s="55"/>
-      <c r="H497" s="55"/>
+      <c r="G497" s="22"/>
+      <c r="H497" s="22"/>
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
       <c r="K497" s="3"/>
@@ -14956,8 +14961,8 @@
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
-      <c r="G498" s="55"/>
-      <c r="H498" s="55"/>
+      <c r="G498" s="22"/>
+      <c r="H498" s="22"/>
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
       <c r="K498" s="3"/>
@@ -14984,8 +14989,8 @@
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
-      <c r="G499" s="55"/>
-      <c r="H499" s="55"/>
+      <c r="G499" s="22"/>
+      <c r="H499" s="22"/>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
       <c r="K499" s="3"/>
@@ -15012,8 +15017,8 @@
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
-      <c r="G500" s="55"/>
-      <c r="H500" s="55"/>
+      <c r="G500" s="22"/>
+      <c r="H500" s="22"/>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
       <c r="K500" s="3"/>
@@ -19375,456 +19380,29 @@
     </row>
   </sheetData>
   <mergeCells count="497">
-    <mergeCell ref="G498:H498"/>
-    <mergeCell ref="G499:H499"/>
-    <mergeCell ref="G500:H500"/>
-    <mergeCell ref="G493:H493"/>
-    <mergeCell ref="G494:H494"/>
-    <mergeCell ref="G495:H495"/>
-    <mergeCell ref="G496:H496"/>
-    <mergeCell ref="G497:H497"/>
-    <mergeCell ref="G488:H488"/>
-    <mergeCell ref="G489:H489"/>
-    <mergeCell ref="G490:H490"/>
-    <mergeCell ref="G491:H491"/>
-    <mergeCell ref="G492:H492"/>
-    <mergeCell ref="G483:H483"/>
-    <mergeCell ref="G484:H484"/>
-    <mergeCell ref="G485:H485"/>
-    <mergeCell ref="G486:H486"/>
-    <mergeCell ref="G487:H487"/>
-    <mergeCell ref="G478:H478"/>
-    <mergeCell ref="G479:H479"/>
-    <mergeCell ref="G480:H480"/>
-    <mergeCell ref="G481:H481"/>
-    <mergeCell ref="G482:H482"/>
-    <mergeCell ref="G473:H473"/>
-    <mergeCell ref="G474:H474"/>
-    <mergeCell ref="G475:H475"/>
-    <mergeCell ref="G476:H476"/>
-    <mergeCell ref="G477:H477"/>
-    <mergeCell ref="G468:H468"/>
-    <mergeCell ref="G469:H469"/>
-    <mergeCell ref="G470:H470"/>
-    <mergeCell ref="G471:H471"/>
-    <mergeCell ref="G472:H472"/>
-    <mergeCell ref="G463:H463"/>
-    <mergeCell ref="G464:H464"/>
-    <mergeCell ref="G465:H465"/>
-    <mergeCell ref="G466:H466"/>
-    <mergeCell ref="G467:H467"/>
-    <mergeCell ref="G458:H458"/>
-    <mergeCell ref="G459:H459"/>
-    <mergeCell ref="G460:H460"/>
-    <mergeCell ref="G461:H461"/>
-    <mergeCell ref="G462:H462"/>
-    <mergeCell ref="G453:H453"/>
-    <mergeCell ref="G454:H454"/>
-    <mergeCell ref="G455:H455"/>
-    <mergeCell ref="G456:H456"/>
-    <mergeCell ref="G457:H457"/>
-    <mergeCell ref="G448:H448"/>
-    <mergeCell ref="G449:H449"/>
-    <mergeCell ref="G450:H450"/>
-    <mergeCell ref="G451:H451"/>
-    <mergeCell ref="G452:H452"/>
-    <mergeCell ref="G443:H443"/>
-    <mergeCell ref="G444:H444"/>
-    <mergeCell ref="G445:H445"/>
-    <mergeCell ref="G446:H446"/>
-    <mergeCell ref="G447:H447"/>
-    <mergeCell ref="G438:H438"/>
-    <mergeCell ref="G439:H439"/>
-    <mergeCell ref="G440:H440"/>
-    <mergeCell ref="G441:H441"/>
-    <mergeCell ref="G442:H442"/>
-    <mergeCell ref="G433:H433"/>
-    <mergeCell ref="G434:H434"/>
-    <mergeCell ref="G435:H435"/>
-    <mergeCell ref="G436:H436"/>
-    <mergeCell ref="G437:H437"/>
-    <mergeCell ref="G428:H428"/>
-    <mergeCell ref="G429:H429"/>
-    <mergeCell ref="G430:H430"/>
-    <mergeCell ref="G431:H431"/>
-    <mergeCell ref="G432:H432"/>
-    <mergeCell ref="G423:H423"/>
-    <mergeCell ref="G424:H424"/>
-    <mergeCell ref="G425:H425"/>
-    <mergeCell ref="G426:H426"/>
-    <mergeCell ref="G427:H427"/>
-    <mergeCell ref="G418:H418"/>
-    <mergeCell ref="G419:H419"/>
-    <mergeCell ref="G420:H420"/>
-    <mergeCell ref="G421:H421"/>
-    <mergeCell ref="G422:H422"/>
-    <mergeCell ref="G413:H413"/>
-    <mergeCell ref="G414:H414"/>
-    <mergeCell ref="G415:H415"/>
-    <mergeCell ref="G416:H416"/>
-    <mergeCell ref="G417:H417"/>
-    <mergeCell ref="G408:H408"/>
-    <mergeCell ref="G409:H409"/>
-    <mergeCell ref="G410:H410"/>
-    <mergeCell ref="G411:H411"/>
-    <mergeCell ref="G412:H412"/>
-    <mergeCell ref="G403:H403"/>
-    <mergeCell ref="G404:H404"/>
-    <mergeCell ref="G405:H405"/>
-    <mergeCell ref="G406:H406"/>
-    <mergeCell ref="G407:H407"/>
-    <mergeCell ref="G398:H398"/>
-    <mergeCell ref="G399:H399"/>
-    <mergeCell ref="G400:H400"/>
-    <mergeCell ref="G401:H401"/>
-    <mergeCell ref="G402:H402"/>
-    <mergeCell ref="G393:H393"/>
-    <mergeCell ref="G394:H394"/>
-    <mergeCell ref="G395:H395"/>
-    <mergeCell ref="G396:H396"/>
-    <mergeCell ref="G397:H397"/>
-    <mergeCell ref="G388:H388"/>
-    <mergeCell ref="G389:H389"/>
-    <mergeCell ref="G390:H390"/>
-    <mergeCell ref="G391:H391"/>
-    <mergeCell ref="G392:H392"/>
-    <mergeCell ref="G383:H383"/>
-    <mergeCell ref="G384:H384"/>
-    <mergeCell ref="G385:H385"/>
-    <mergeCell ref="G386:H386"/>
-    <mergeCell ref="G387:H387"/>
-    <mergeCell ref="G378:H378"/>
-    <mergeCell ref="G379:H379"/>
-    <mergeCell ref="G380:H380"/>
-    <mergeCell ref="G381:H381"/>
-    <mergeCell ref="G382:H382"/>
-    <mergeCell ref="G373:H373"/>
-    <mergeCell ref="G374:H374"/>
-    <mergeCell ref="G375:H375"/>
-    <mergeCell ref="G376:H376"/>
-    <mergeCell ref="G377:H377"/>
-    <mergeCell ref="G368:H368"/>
-    <mergeCell ref="G369:H369"/>
-    <mergeCell ref="G370:H370"/>
-    <mergeCell ref="G371:H371"/>
-    <mergeCell ref="G372:H372"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="G364:H364"/>
-    <mergeCell ref="G365:H365"/>
-    <mergeCell ref="G366:H366"/>
-    <mergeCell ref="G367:H367"/>
-    <mergeCell ref="G358:H358"/>
-    <mergeCell ref="G359:H359"/>
-    <mergeCell ref="G360:H360"/>
-    <mergeCell ref="G361:H361"/>
-    <mergeCell ref="G362:H362"/>
-    <mergeCell ref="G353:H353"/>
-    <mergeCell ref="G354:H354"/>
-    <mergeCell ref="G355:H355"/>
-    <mergeCell ref="G356:H356"/>
-    <mergeCell ref="G357:H357"/>
-    <mergeCell ref="G348:H348"/>
-    <mergeCell ref="G349:H349"/>
-    <mergeCell ref="G350:H350"/>
-    <mergeCell ref="G351:H351"/>
-    <mergeCell ref="G352:H352"/>
-    <mergeCell ref="G343:H343"/>
-    <mergeCell ref="G344:H344"/>
-    <mergeCell ref="G345:H345"/>
-    <mergeCell ref="G346:H346"/>
-    <mergeCell ref="G347:H347"/>
-    <mergeCell ref="G338:H338"/>
-    <mergeCell ref="G339:H339"/>
-    <mergeCell ref="G340:H340"/>
-    <mergeCell ref="G341:H341"/>
-    <mergeCell ref="G342:H342"/>
-    <mergeCell ref="G333:H333"/>
-    <mergeCell ref="G334:H334"/>
-    <mergeCell ref="G335:H335"/>
-    <mergeCell ref="G336:H336"/>
-    <mergeCell ref="G337:H337"/>
-    <mergeCell ref="G328:H328"/>
-    <mergeCell ref="G329:H329"/>
-    <mergeCell ref="G330:H330"/>
-    <mergeCell ref="G331:H331"/>
-    <mergeCell ref="G332:H332"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="G324:H324"/>
-    <mergeCell ref="G325:H325"/>
-    <mergeCell ref="G326:H326"/>
-    <mergeCell ref="G327:H327"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="G319:H319"/>
-    <mergeCell ref="G320:H320"/>
-    <mergeCell ref="G321:H321"/>
-    <mergeCell ref="G322:H322"/>
-    <mergeCell ref="G313:H313"/>
-    <mergeCell ref="G314:H314"/>
-    <mergeCell ref="G315:H315"/>
-    <mergeCell ref="G316:H316"/>
-    <mergeCell ref="G317:H317"/>
-    <mergeCell ref="G308:H308"/>
-    <mergeCell ref="G309:H309"/>
-    <mergeCell ref="G310:H310"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="G312:H312"/>
-    <mergeCell ref="G303:H303"/>
-    <mergeCell ref="G304:H304"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="G306:H306"/>
-    <mergeCell ref="G307:H307"/>
-    <mergeCell ref="G298:H298"/>
-    <mergeCell ref="G299:H299"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="G301:H301"/>
-    <mergeCell ref="G302:H302"/>
-    <mergeCell ref="G293:H293"/>
-    <mergeCell ref="G294:H294"/>
-    <mergeCell ref="G295:H295"/>
-    <mergeCell ref="G296:H296"/>
-    <mergeCell ref="G297:H297"/>
-    <mergeCell ref="G288:H288"/>
-    <mergeCell ref="G289:H289"/>
-    <mergeCell ref="G290:H290"/>
-    <mergeCell ref="G291:H291"/>
-    <mergeCell ref="G292:H292"/>
-    <mergeCell ref="G283:H283"/>
-    <mergeCell ref="G284:H284"/>
-    <mergeCell ref="G285:H285"/>
-    <mergeCell ref="G286:H286"/>
-    <mergeCell ref="G287:H287"/>
-    <mergeCell ref="G278:H278"/>
-    <mergeCell ref="G279:H279"/>
-    <mergeCell ref="G280:H280"/>
-    <mergeCell ref="G281:H281"/>
-    <mergeCell ref="G282:H282"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="G274:H274"/>
-    <mergeCell ref="G275:H275"/>
-    <mergeCell ref="G276:H276"/>
-    <mergeCell ref="G277:H277"/>
-    <mergeCell ref="G268:H268"/>
-    <mergeCell ref="G269:H269"/>
-    <mergeCell ref="G270:H270"/>
-    <mergeCell ref="G271:H271"/>
-    <mergeCell ref="G272:H272"/>
-    <mergeCell ref="G263:H263"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="G265:H265"/>
-    <mergeCell ref="G266:H266"/>
-    <mergeCell ref="G267:H267"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="G262:H262"/>
-    <mergeCell ref="G253:H253"/>
-    <mergeCell ref="G254:H254"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="G248:H248"/>
-    <mergeCell ref="G249:H249"/>
-    <mergeCell ref="G250:H250"/>
-    <mergeCell ref="G251:H251"/>
-    <mergeCell ref="G252:H252"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G246:H246"/>
-    <mergeCell ref="G247:H247"/>
-    <mergeCell ref="G238:H238"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G233:H233"/>
-    <mergeCell ref="G234:H234"/>
-    <mergeCell ref="G235:H235"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A18:H19"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="A24:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H13"/>
+    <mergeCell ref="A14:H15"/>
+    <mergeCell ref="A16:H17"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
@@ -19849,30 +19427,458 @@
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A18:H19"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="A24:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H13"/>
-    <mergeCell ref="A14:H15"/>
-    <mergeCell ref="A16:H17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="G243:H243"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G253:H253"/>
+    <mergeCell ref="G254:H254"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="G248:H248"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="G250:H250"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="G252:H252"/>
+    <mergeCell ref="G263:H263"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="G265:H265"/>
+    <mergeCell ref="G266:H266"/>
+    <mergeCell ref="G267:H267"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="G262:H262"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="G274:H274"/>
+    <mergeCell ref="G275:H275"/>
+    <mergeCell ref="G276:H276"/>
+    <mergeCell ref="G277:H277"/>
+    <mergeCell ref="G268:H268"/>
+    <mergeCell ref="G269:H269"/>
+    <mergeCell ref="G270:H270"/>
+    <mergeCell ref="G271:H271"/>
+    <mergeCell ref="G272:H272"/>
+    <mergeCell ref="G283:H283"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="G285:H285"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="G287:H287"/>
+    <mergeCell ref="G278:H278"/>
+    <mergeCell ref="G279:H279"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="G281:H281"/>
+    <mergeCell ref="G282:H282"/>
+    <mergeCell ref="G293:H293"/>
+    <mergeCell ref="G294:H294"/>
+    <mergeCell ref="G295:H295"/>
+    <mergeCell ref="G296:H296"/>
+    <mergeCell ref="G297:H297"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="G291:H291"/>
+    <mergeCell ref="G292:H292"/>
+    <mergeCell ref="G303:H303"/>
+    <mergeCell ref="G304:H304"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="G306:H306"/>
+    <mergeCell ref="G307:H307"/>
+    <mergeCell ref="G298:H298"/>
+    <mergeCell ref="G299:H299"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="G301:H301"/>
+    <mergeCell ref="G302:H302"/>
+    <mergeCell ref="G313:H313"/>
+    <mergeCell ref="G314:H314"/>
+    <mergeCell ref="G315:H315"/>
+    <mergeCell ref="G316:H316"/>
+    <mergeCell ref="G317:H317"/>
+    <mergeCell ref="G308:H308"/>
+    <mergeCell ref="G309:H309"/>
+    <mergeCell ref="G310:H310"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="G312:H312"/>
+    <mergeCell ref="G323:H323"/>
+    <mergeCell ref="G324:H324"/>
+    <mergeCell ref="G325:H325"/>
+    <mergeCell ref="G326:H326"/>
+    <mergeCell ref="G327:H327"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="G319:H319"/>
+    <mergeCell ref="G320:H320"/>
+    <mergeCell ref="G321:H321"/>
+    <mergeCell ref="G322:H322"/>
+    <mergeCell ref="G333:H333"/>
+    <mergeCell ref="G334:H334"/>
+    <mergeCell ref="G335:H335"/>
+    <mergeCell ref="G336:H336"/>
+    <mergeCell ref="G337:H337"/>
+    <mergeCell ref="G328:H328"/>
+    <mergeCell ref="G329:H329"/>
+    <mergeCell ref="G330:H330"/>
+    <mergeCell ref="G331:H331"/>
+    <mergeCell ref="G332:H332"/>
+    <mergeCell ref="G343:H343"/>
+    <mergeCell ref="G344:H344"/>
+    <mergeCell ref="G345:H345"/>
+    <mergeCell ref="G346:H346"/>
+    <mergeCell ref="G347:H347"/>
+    <mergeCell ref="G338:H338"/>
+    <mergeCell ref="G339:H339"/>
+    <mergeCell ref="G340:H340"/>
+    <mergeCell ref="G341:H341"/>
+    <mergeCell ref="G342:H342"/>
+    <mergeCell ref="G353:H353"/>
+    <mergeCell ref="G354:H354"/>
+    <mergeCell ref="G355:H355"/>
+    <mergeCell ref="G356:H356"/>
+    <mergeCell ref="G357:H357"/>
+    <mergeCell ref="G348:H348"/>
+    <mergeCell ref="G349:H349"/>
+    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="G351:H351"/>
+    <mergeCell ref="G352:H352"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="G364:H364"/>
+    <mergeCell ref="G365:H365"/>
+    <mergeCell ref="G366:H366"/>
+    <mergeCell ref="G367:H367"/>
+    <mergeCell ref="G358:H358"/>
+    <mergeCell ref="G359:H359"/>
+    <mergeCell ref="G360:H360"/>
+    <mergeCell ref="G361:H361"/>
+    <mergeCell ref="G362:H362"/>
+    <mergeCell ref="G373:H373"/>
+    <mergeCell ref="G374:H374"/>
+    <mergeCell ref="G375:H375"/>
+    <mergeCell ref="G376:H376"/>
+    <mergeCell ref="G377:H377"/>
+    <mergeCell ref="G368:H368"/>
+    <mergeCell ref="G369:H369"/>
+    <mergeCell ref="G370:H370"/>
+    <mergeCell ref="G371:H371"/>
+    <mergeCell ref="G372:H372"/>
+    <mergeCell ref="G383:H383"/>
+    <mergeCell ref="G384:H384"/>
+    <mergeCell ref="G385:H385"/>
+    <mergeCell ref="G386:H386"/>
+    <mergeCell ref="G387:H387"/>
+    <mergeCell ref="G378:H378"/>
+    <mergeCell ref="G379:H379"/>
+    <mergeCell ref="G380:H380"/>
+    <mergeCell ref="G381:H381"/>
+    <mergeCell ref="G382:H382"/>
+    <mergeCell ref="G393:H393"/>
+    <mergeCell ref="G394:H394"/>
+    <mergeCell ref="G395:H395"/>
+    <mergeCell ref="G396:H396"/>
+    <mergeCell ref="G397:H397"/>
+    <mergeCell ref="G388:H388"/>
+    <mergeCell ref="G389:H389"/>
+    <mergeCell ref="G390:H390"/>
+    <mergeCell ref="G391:H391"/>
+    <mergeCell ref="G392:H392"/>
+    <mergeCell ref="G403:H403"/>
+    <mergeCell ref="G404:H404"/>
+    <mergeCell ref="G405:H405"/>
+    <mergeCell ref="G406:H406"/>
+    <mergeCell ref="G407:H407"/>
+    <mergeCell ref="G398:H398"/>
+    <mergeCell ref="G399:H399"/>
+    <mergeCell ref="G400:H400"/>
+    <mergeCell ref="G401:H401"/>
+    <mergeCell ref="G402:H402"/>
+    <mergeCell ref="G413:H413"/>
+    <mergeCell ref="G414:H414"/>
+    <mergeCell ref="G415:H415"/>
+    <mergeCell ref="G416:H416"/>
+    <mergeCell ref="G417:H417"/>
+    <mergeCell ref="G408:H408"/>
+    <mergeCell ref="G409:H409"/>
+    <mergeCell ref="G410:H410"/>
+    <mergeCell ref="G411:H411"/>
+    <mergeCell ref="G412:H412"/>
+    <mergeCell ref="G423:H423"/>
+    <mergeCell ref="G424:H424"/>
+    <mergeCell ref="G425:H425"/>
+    <mergeCell ref="G426:H426"/>
+    <mergeCell ref="G427:H427"/>
+    <mergeCell ref="G418:H418"/>
+    <mergeCell ref="G419:H419"/>
+    <mergeCell ref="G420:H420"/>
+    <mergeCell ref="G421:H421"/>
+    <mergeCell ref="G422:H422"/>
+    <mergeCell ref="G433:H433"/>
+    <mergeCell ref="G434:H434"/>
+    <mergeCell ref="G435:H435"/>
+    <mergeCell ref="G436:H436"/>
+    <mergeCell ref="G437:H437"/>
+    <mergeCell ref="G428:H428"/>
+    <mergeCell ref="G429:H429"/>
+    <mergeCell ref="G430:H430"/>
+    <mergeCell ref="G431:H431"/>
+    <mergeCell ref="G432:H432"/>
+    <mergeCell ref="G443:H443"/>
+    <mergeCell ref="G444:H444"/>
+    <mergeCell ref="G445:H445"/>
+    <mergeCell ref="G446:H446"/>
+    <mergeCell ref="G447:H447"/>
+    <mergeCell ref="G438:H438"/>
+    <mergeCell ref="G439:H439"/>
+    <mergeCell ref="G440:H440"/>
+    <mergeCell ref="G441:H441"/>
+    <mergeCell ref="G442:H442"/>
+    <mergeCell ref="G453:H453"/>
+    <mergeCell ref="G454:H454"/>
+    <mergeCell ref="G455:H455"/>
+    <mergeCell ref="G456:H456"/>
+    <mergeCell ref="G457:H457"/>
+    <mergeCell ref="G448:H448"/>
+    <mergeCell ref="G449:H449"/>
+    <mergeCell ref="G450:H450"/>
+    <mergeCell ref="G451:H451"/>
+    <mergeCell ref="G452:H452"/>
+    <mergeCell ref="G463:H463"/>
+    <mergeCell ref="G464:H464"/>
+    <mergeCell ref="G465:H465"/>
+    <mergeCell ref="G466:H466"/>
+    <mergeCell ref="G467:H467"/>
+    <mergeCell ref="G458:H458"/>
+    <mergeCell ref="G459:H459"/>
+    <mergeCell ref="G460:H460"/>
+    <mergeCell ref="G461:H461"/>
+    <mergeCell ref="G462:H462"/>
+    <mergeCell ref="G473:H473"/>
+    <mergeCell ref="G474:H474"/>
+    <mergeCell ref="G475:H475"/>
+    <mergeCell ref="G476:H476"/>
+    <mergeCell ref="G477:H477"/>
+    <mergeCell ref="G468:H468"/>
+    <mergeCell ref="G469:H469"/>
+    <mergeCell ref="G470:H470"/>
+    <mergeCell ref="G471:H471"/>
+    <mergeCell ref="G472:H472"/>
+    <mergeCell ref="G483:H483"/>
+    <mergeCell ref="G484:H484"/>
+    <mergeCell ref="G485:H485"/>
+    <mergeCell ref="G486:H486"/>
+    <mergeCell ref="G487:H487"/>
+    <mergeCell ref="G478:H478"/>
+    <mergeCell ref="G479:H479"/>
+    <mergeCell ref="G480:H480"/>
+    <mergeCell ref="G481:H481"/>
+    <mergeCell ref="G482:H482"/>
+    <mergeCell ref="G498:H498"/>
+    <mergeCell ref="G499:H499"/>
+    <mergeCell ref="G500:H500"/>
+    <mergeCell ref="G493:H493"/>
+    <mergeCell ref="G494:H494"/>
+    <mergeCell ref="G495:H495"/>
+    <mergeCell ref="G496:H496"/>
+    <mergeCell ref="G497:H497"/>
+    <mergeCell ref="G488:H488"/>
+    <mergeCell ref="G489:H489"/>
+    <mergeCell ref="G490:H490"/>
+    <mergeCell ref="G491:H491"/>
+    <mergeCell ref="G492:H492"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>